--- a/build/classes/resources/excel/tai.xlsx
+++ b/build/classes/resources/excel/tai.xlsx
@@ -8,14 +8,14 @@
   <sheets>
     <sheet name="NhanVien" r:id="rId9" sheetId="11"/>
     <sheet name="NhaCungCap" r:id="rId8" sheetId="13"/>
-    <sheet name="Danh Sách Doanh Thu" r:id="rId6" sheetId="14"/>
-    <sheet name="Danh Sách Khoản Chi" r:id="rId7" sheetId="15"/>
+    <sheet name="Danh Sách Doanh Thu" r:id="rId6" sheetId="16"/>
+    <sheet name="Danh Sách Khoản Chi" r:id="rId7" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="203">
   <si>
     <t>Danh Sách Nhân Viên</t>
   </si>
@@ -609,6 +609,21 @@
   </si>
   <si>
     <t>13/12/2023</t>
+  </si>
+  <si>
+    <t>Year:</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Month:</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -647,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -684,6 +699,8 @@
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
@@ -1329,19 +1346,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.66015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.13671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.99609375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.44921875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.66015625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.99609375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.44921875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1349,208 +1366,63 @@
         <v>121</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" t="s">
-        <v>126</v>
+        <v>141</v>
+      </c>
+      <c r="D4" s="19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="19" t="n">
+        <v>30000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>40000.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E6" s="15" t="n">
-        <v>40000.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <v>40000.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="15" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>100000.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>200000.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>30000.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="15" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E11" s="15" t="n">
-        <v>100000.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="15" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E12" s="15" t="n">
-        <v>100000.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E13" s="15" t="n">
-        <v>40000.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="15" t="n">
+      <c r="D5" s="19" t="n">
         <v>2.0</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E5" s="19" t="n">
         <v>20000.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="15" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E15" s="15" t="n">
-        <v>100000.0</v>
       </c>
     </row>
   </sheetData>
@@ -1558,18 +1430,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.8984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.34765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.13671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.9375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1580,101 +1452,135 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="D4" t="n" s="20">
+        <v>20.0</v>
+      </c>
+      <c r="E4" t="n" s="20">
+        <v>80000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" t="n" s="18">
-        <v>80.0</v>
-      </c>
-      <c r="E5" t="n" s="18">
-        <v>1040000.0</v>
+        <v>129</v>
+      </c>
+      <c r="D5" t="n" s="20">
+        <v>40.0</v>
+      </c>
+      <c r="E5" t="n" s="20">
+        <v>160000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" t="n" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="E6" t="n" s="18">
-        <v>500000.0</v>
+        <v>129</v>
+      </c>
+      <c r="D6" t="n" s="20">
+        <v>40.0</v>
+      </c>
+      <c r="E6" t="n" s="20">
+        <v>160000.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" t="n" s="18">
-        <v>200.0</v>
-      </c>
-      <c r="E7" t="n" s="18">
-        <v>5000000.0</v>
+        <v>129</v>
+      </c>
+      <c r="D7" t="n" s="20">
+        <v>40.0</v>
+      </c>
+      <c r="E7" t="n" s="20">
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" t="n" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="E8" t="n" s="18">
-        <v>1000000.0</v>
+        <v>136</v>
+      </c>
+      <c r="D8" t="n" s="20">
+        <v>40.0</v>
+      </c>
+      <c r="E8" t="n" s="20">
+        <v>4000000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="n" s="20">
+        <v>40.0</v>
+      </c>
+      <c r="E9" t="n" s="20">
+        <v>4000000.0</v>
       </c>
     </row>
   </sheetData>
